--- a/project_files/templates/plantilla_producto.xlsx
+++ b/project_files/templates/plantilla_producto.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\pedidos\project_files\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
   </bookViews>
@@ -18,8 +23,90 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>RRamirez</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>RRamirez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Los valores posibles: SI / NO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>RRamirez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Debe corresponder con el catalogo de Marcas o estar vacio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>RRamirez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Debe corresponder con el catalogo de Categorías o estar vacio</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Producto</t>
   </si>
@@ -37,13 +124,22 @@
   </si>
   <si>
     <t>Activo</t>
+  </si>
+  <si>
+    <t>Impuesto</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Categoria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +161,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -123,8 +232,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Encabezado 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Título 1" xfId="1" builtinId="16"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -394,15 +503,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -419,7 +528,7 @@
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,10 +547,20 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>